--- a/el/4.xlsx
+++ b/el/4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -72,34 +72,61 @@
     <t>rank</t>
   </si>
   <si>
-    <t>bi3diao1_mega</t>
-  </si>
-  <si>
-    <t>未开放精灵</t>
-  </si>
-  <si>
-    <t>仙子宝贝</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
     <t>0,574|0,39|0,33|5,28|13,98|17,129|20,577|29,581|41,387|45,244|60,116</t>
   </si>
   <si>
-    <t>草拉迪</t>
-  </si>
-  <si>
     <t>0,73|0,93|0,105|10,219|20,246|40,226</t>
   </si>
   <si>
-    <t>bi3diao1</t>
-  </si>
-  <si>
-    <t>火凤皇</t>
-  </si>
-  <si>
     <t>0,221|11,219|22,16|33,105|44,126|66,129|77,18|79,246</t>
+  </si>
+  <si>
+    <t>jia3qiao4yong3_color1</t>
+  </si>
+  <si>
+    <t>甲壳蛹</t>
+  </si>
+  <si>
+    <t>盾甲蛹</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>dai1dai1shou4_color1</t>
+  </si>
+  <si>
+    <t>呆呆兽</t>
+  </si>
+  <si>
+    <t>憨憨兽</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>dai1dai1shou4_color2</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>dai1dai1shou4_color3</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>bao3bei4qiu2gu1</t>
+  </si>
+  <si>
+    <t>宝贝球菇</t>
+  </si>
+  <si>
+    <t>小小菇</t>
+  </si>
+  <si>
+    <t>草|毒</t>
   </si>
 </sst>
 </file>
@@ -149,8 +176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -450,7 +478,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -512,38 +540,38 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>401266</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>15</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -559,45 +587,45 @@
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>401079</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -613,45 +641,45 @@
         <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="1">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="A4" s="2">
+        <v>402079</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>15</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -667,45 +695,45 @@
         <v>3</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="2">
+        <v>403079</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -721,45 +749,45 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
+      <c r="A6" s="2">
+        <v>590</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -775,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -784,6 +812,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
